--- a/ValueSet-lk-core-health-institution-vs.xlsx
+++ b/ValueSet-lk-core-health-institution-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T00:18:27+05:30</t>
+    <t>2023-08-14T13:12:37+05:30</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-lk-core-health-institution-vs.xlsx
+++ b/ValueSet-lk-core-health-institution-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T13:12:37+05:30</t>
+    <t>2023-09-05T15:30:49+05:30</t>
   </si>
   <si>
     <t>Publisher</t>
